--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9117DDE-C945-4323-8E1E-BE5BA085BD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C3B0FD-997C-4061-89E9-B04FF3A28C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>push null at end of each level</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -549,7 +555,7 @@
     <col min="3" max="15" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
@@ -557,7 +563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -565,7 +571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -573,7 +579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -581,7 +587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -589,7 +595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -597,7 +603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -605,31 +611,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -637,7 +652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -645,121 +660,150 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>

--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C3B0FD-997C-4061-89E9-B04FF3A28C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F45A8-C08B-4F58-8608-D2738F3CBE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -544,8 +544,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -707,7 +707,9 @@
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" t="s">
         <v>71</v>
       </c>
@@ -724,7 +726,9 @@
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C20" t="s">
         <v>71</v>
       </c>
@@ -765,19 +769,25 @@
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -789,13 +799,17 @@
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -807,19 +821,25 @@
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -831,7 +851,9 @@
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -1098,39 +1120,39 @@
     <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A62" r:id="rId61" location=":~:text=Construct%20tree%20from%20ancestor%20matrix%201%20Create%20an,%28node%20with%20maximum%20sum%29%20is%20root%20of%20tree." xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId60" location=":~:text=Construct%20tree%20from%20ancestor%20matrix%201%20Create%20an,%28node%20with%20maximum%20sum%29%20is%20root%20of%20tree." xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>

--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16F45A8-C08B-4F58-8608-D2738F3CBE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD711F-7858-40B2-8CCD-FA8729EB5BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>http://www.geeksforgeeks.org/convert-an-arbitrary-binary-tree-to-a-tree-that-holds-children-sum-property/</t>
-  </si>
-  <si>
-    <t>http://www.geeksforgeeks.org/convert-bst-to-a-binary-tree/</t>
   </si>
   <si>
     <t>http://www.geeksforgeeks.org/find-k-th-smallest-element-in-bst-order-statistics-in-bst/</t>
@@ -544,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -557,10 +554,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -568,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -584,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -592,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -600,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,10 +613,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,10 +624,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,10 +635,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +670,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,10 +694,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,10 +705,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -727,10 +724,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,7 +767,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -800,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,106 +819,124 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -940,13 +955,13 @@
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="3"/>
@@ -1018,13 +1033,13 @@
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="3"/>
@@ -1048,9 +1063,6 @@
       <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1123,38 +1135,37 @@
     <hyperlink ref="A37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="A38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A62" r:id="rId60" location=":~:text=Construct%20tree%20from%20ancestor%20matrix%201%20Create%20an,%28node%20with%20maximum%20sum%29%20is%20root%20of%20tree." xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A36" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A61" r:id="rId59" location=":~:text=Construct%20tree%20from%20ancestor%20matrix%201%20Create%20an,%28node%20with%20maximum%20sum%29%20is%20root%20of%20tree." xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A36" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD711F-7858-40B2-8CCD-FA8729EB5BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF462A0B-6636-4B3E-A526-5B0BAE05F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -928,111 +928,124 @@
       <c r="A46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>

--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF462A0B-6636-4B3E-A526-5B0BAE05F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E212C5-B1CF-4F15-AE7B-75136D2A3B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,9 @@
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
@@ -995,7 +997,9 @@
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">

--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E212C5-B1CF-4F15-AE7B-75136D2A3B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05658B7-3002-4355-8548-D30B069D3A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1005,19 +1005,31 @@
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">

--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05658B7-3002-4355-8548-D30B069D3A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE8785B-FE6F-4134-A16E-7651097F8F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -541,8 +541,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1035,9 @@
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">

--- a/Week 6/WEEK 6 PLAN.xlsx
+++ b/Week 6/WEEK 6 PLAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE8785B-FE6F-4134-A16E-7651097F8F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D192D07-C580-4AE8-B0DF-A766F306F3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>http://www.geeksforgeeks.org/write-a-c-program-to-calculate-size-of-a-tree/</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>push null at end of each level</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
   </sheetPr>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -790,7 +793,9 @@
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -812,7 +817,9 @@
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -845,7 +852,9 @@
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -894,7 +903,12 @@
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
@@ -916,7 +930,12 @@
       <c r="A44" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -977,7 +996,9 @@
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
@@ -1049,19 +1070,28 @@
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
@@ -1091,7 +1121,9 @@
       <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
